--- a/Problems1_veil.xlsx
+++ b/Problems1_veil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\СУБД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910794C7-9DE3-442B-B992-70EB77B21EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4788F59-9875-4558-B5B5-086E96AAFAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="210">
   <si>
     <t>}</t>
   </si>
@@ -659,9 +659,6 @@
   </si>
   <si>
     <t>ANIMATION.ANIMATE=SEASONS.ANIMATE&lt;AND&gt;SEASONS.SEASON='W'</t>
-  </si>
-  <si>
-    <t>б, в)</t>
   </si>
   <si>
     <t>R1.ANIMATE -&gt; R1.PAYMENT</t>
@@ -1294,35 +1291,23 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,7 +1327,28 @@
     <xf numFmtId="43" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1351,26 +1357,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5942,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <dimension ref="A2:AJ323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O156" sqref="O156"/>
+    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O310" sqref="O310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6271,48 +6268,48 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="N23" s="61" t="s">
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="N23" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="S23" s="61" t="s">
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="S23" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K25" s="16"/>
@@ -7118,25 +7115,25 @@
     </row>
     <row r="112" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="25"/>
-      <c r="C112" s="64" t="s">
+      <c r="C112" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="66"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="76"/>
       <c r="H112" s="26"/>
-      <c r="I112" s="64" t="s">
+      <c r="I112" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="J112" s="66"/>
+      <c r="J112" s="76"/>
       <c r="K112" s="26"/>
       <c r="L112" s="26"/>
-      <c r="M112" s="64" t="s">
+      <c r="M112" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="N112" s="65"/>
-      <c r="O112" s="66"/>
+      <c r="N112" s="84"/>
+      <c r="O112" s="76"/>
       <c r="P112" s="27"/>
       <c r="Q112" s="28"/>
       <c r="T112" s="39"/>
@@ -7159,19 +7156,19 @@
     </row>
     <row r="113" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="25"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="69"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="78"/>
       <c r="H113" s="26"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="69"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="78"/>
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="68"/>
-      <c r="O113" s="69"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="85"/>
+      <c r="O113" s="78"/>
       <c r="P113" s="27"/>
       <c r="Q113" s="29"/>
       <c r="T113" s="39"/>
@@ -7309,11 +7306,11 @@
       <c r="J117" s="26"/>
       <c r="K117" s="26"/>
       <c r="L117" s="26"/>
-      <c r="M117" s="71" t="s">
+      <c r="M117" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="N117" s="72"/>
-      <c r="O117" s="73"/>
+      <c r="N117" s="68"/>
+      <c r="O117" s="69"/>
       <c r="P117" s="26"/>
       <c r="Q117" s="29"/>
       <c r="T117" s="39"/>
@@ -7323,10 +7320,10 @@
       <c r="X117" s="26"/>
       <c r="Y117" s="26"/>
       <c r="Z117" s="26"/>
-      <c r="AA117" s="64" t="s">
+      <c r="AA117" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="AB117" s="66"/>
+      <c r="AB117" s="76"/>
       <c r="AC117" s="26"/>
       <c r="AD117" s="26"/>
       <c r="AE117" s="26"/>
@@ -7348,9 +7345,9 @@
       <c r="J118" s="26"/>
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
-      <c r="M118" s="74"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="76"/>
+      <c r="M118" s="70"/>
+      <c r="N118" s="71"/>
+      <c r="O118" s="72"/>
       <c r="P118" s="27"/>
       <c r="Q118" s="29"/>
       <c r="T118" s="39"/>
@@ -7360,8 +7357,8 @@
       <c r="X118" s="26"/>
       <c r="Y118" s="26"/>
       <c r="Z118" s="26"/>
-      <c r="AA118" s="67"/>
-      <c r="AB118" s="69"/>
+      <c r="AA118" s="77"/>
+      <c r="AB118" s="78"/>
       <c r="AC118" s="26"/>
       <c r="AD118" s="26"/>
       <c r="AE118" s="26"/>
@@ -7375,13 +7372,13 @@
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="26"/>
-      <c r="E119" s="64" t="s">
+      <c r="E119" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="F119" s="65"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="66"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="84"/>
+      <c r="H119" s="84"/>
+      <c r="I119" s="76"/>
       <c r="J119" s="26"/>
       <c r="K119" s="26"/>
       <c r="L119" s="26"/>
@@ -7412,11 +7409,11 @@
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="68"/>
-      <c r="H120" s="68"/>
-      <c r="I120" s="69"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="85"/>
+      <c r="I120" s="78"/>
       <c r="J120" s="26"/>
       <c r="K120" s="26"/>
       <c r="L120" s="26"/>
@@ -7462,22 +7459,22 @@
       <c r="Q121" s="29"/>
       <c r="T121" s="39"/>
       <c r="U121" s="26"/>
-      <c r="V121" s="64" t="s">
+      <c r="V121" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="W121" s="65"/>
-      <c r="X121" s="66"/>
+      <c r="W121" s="84"/>
+      <c r="X121" s="76"/>
       <c r="Y121" s="26"/>
       <c r="Z121" s="26"/>
       <c r="AA121" s="26"/>
       <c r="AB121" s="26"/>
       <c r="AC121" s="26"/>
       <c r="AD121" s="26"/>
-      <c r="AE121" s="71" t="s">
+      <c r="AE121" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="AF121" s="72"/>
-      <c r="AG121" s="73"/>
+      <c r="AF121" s="68"/>
+      <c r="AG121" s="69"/>
       <c r="AH121" s="26"/>
       <c r="AI121" s="26"/>
       <c r="AJ121" s="29"/>
@@ -7493,32 +7490,32 @@
       <c r="I122" s="26"/>
       <c r="J122" s="26"/>
       <c r="K122" s="26"/>
-      <c r="L122" s="62" t="s">
+      <c r="L122" s="79" t="s">
         <v>170</v>
       </c>
       <c r="M122" s="26"/>
-      <c r="N122" s="62" t="s">
+      <c r="N122" s="79" t="s">
         <v>173</v>
       </c>
       <c r="O122" s="26"/>
-      <c r="P122" s="62" t="s">
+      <c r="P122" s="79" t="s">
         <v>174</v>
       </c>
       <c r="Q122" s="29"/>
       <c r="T122" s="39"/>
       <c r="U122" s="26"/>
-      <c r="V122" s="67"/>
-      <c r="W122" s="68"/>
-      <c r="X122" s="69"/>
+      <c r="V122" s="77"/>
+      <c r="W122" s="85"/>
+      <c r="X122" s="78"/>
       <c r="Y122" s="26"/>
       <c r="Z122" s="26"/>
       <c r="AA122" s="26"/>
       <c r="AB122" s="26"/>
       <c r="AC122" s="26"/>
       <c r="AD122" s="26"/>
-      <c r="AE122" s="74"/>
-      <c r="AF122" s="75"/>
-      <c r="AG122" s="76"/>
+      <c r="AE122" s="70"/>
+      <c r="AF122" s="71"/>
+      <c r="AG122" s="72"/>
       <c r="AH122" s="26"/>
       <c r="AI122" s="26"/>
       <c r="AJ122" s="29"/>
@@ -7534,11 +7531,11 @@
       <c r="I123" s="26"/>
       <c r="J123" s="26"/>
       <c r="K123" s="26"/>
-      <c r="L123" s="63"/>
+      <c r="L123" s="80"/>
       <c r="M123" s="26"/>
-      <c r="N123" s="63"/>
+      <c r="N123" s="80"/>
       <c r="O123" s="26"/>
-      <c r="P123" s="63"/>
+      <c r="P123" s="80"/>
       <c r="Q123" s="29"/>
       <c r="T123" s="39"/>
       <c r="U123" s="26"/>
@@ -7618,7 +7615,7 @@
       <c r="W125" s="26"/>
       <c r="X125" s="26"/>
       <c r="Y125" s="26"/>
-      <c r="Z125" s="62" t="s">
+      <c r="Z125" s="79" t="s">
         <v>173</v>
       </c>
       <c r="AA125" s="26"/>
@@ -7639,10 +7636,10 @@
       <c r="W126" s="26"/>
       <c r="X126" s="26"/>
       <c r="Y126" s="26"/>
-      <c r="Z126" s="63"/>
+      <c r="Z126" s="80"/>
       <c r="AA126" s="26"/>
       <c r="AB126" s="26"/>
-      <c r="AC126" s="62" t="s">
+      <c r="AC126" s="79" t="s">
         <v>174</v>
       </c>
       <c r="AD126" s="26"/>
@@ -7669,7 +7666,7 @@
       <c r="Z127" s="26"/>
       <c r="AA127" s="26"/>
       <c r="AB127" s="26"/>
-      <c r="AC127" s="63"/>
+      <c r="AC127" s="80"/>
       <c r="AD127" s="26"/>
       <c r="AE127" s="26"/>
       <c r="AF127" s="26"/>
@@ -7992,7 +7989,7 @@
         <v>54</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K152" s="7" t="s">
         <v>126</v>
@@ -8041,7 +8038,7 @@
         <v>39815</v>
       </c>
       <c r="O154" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -8061,7 +8058,7 @@
         <v>43833</v>
       </c>
       <c r="O155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -8249,7 +8246,7 @@
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F171" s="13" t="s">
+      <c r="F171" s="49" t="s">
         <v>32</v>
       </c>
       <c r="H171" s="7" t="s">
@@ -8641,7 +8638,7 @@
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F195" s="49" t="s">
+      <c r="F195" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H195" s="7" t="s">
@@ -9097,12 +9094,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B226" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>31</v>
       </c>
@@ -9110,7 +9107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="229" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>32</v>
       </c>
@@ -9118,7 +9115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>33</v>
       </c>
@@ -9126,7 +9123,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="231" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>34</v>
       </c>
@@ -9134,18 +9131,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:32" x14ac:dyDescent="0.3">
       <c r="G233" s="50" t="s">
         <v>186</v>
       </c>
       <c r="M233" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="S233" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="T233" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA233" s="53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:32" x14ac:dyDescent="0.3">
       <c r="H234" s="51" t="s">
         <v>152</v>
       </c>
@@ -9176,23 +9176,38 @@
       <c r="R234" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="T234" s="51" t="s">
+      <c r="U234" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="V234" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="W234" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="U234" s="51" t="s">
+      <c r="X234" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="V234" s="51" t="s">
+      <c r="Y234" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="W234" s="51" t="s">
+      <c r="AB234" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC234" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD234" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE234" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="X234" s="51" t="s">
+      <c r="AF234" s="51" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="235" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:32" x14ac:dyDescent="0.3">
       <c r="H235" s="18" t="s">
         <v>61</v>
       </c>
@@ -9223,23 +9238,38 @@
       <c r="R235" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="T235" s="18">
+      <c r="U235" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="V235" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W235" s="18">
+        <v>2</v>
+      </c>
+      <c r="X235" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y235" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB235" s="18">
         <v>1</v>
       </c>
-      <c r="U235" s="18" t="s">
+      <c r="AC235" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="V235" s="18" t="s">
+      <c r="AD235" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="W235" s="18" t="s">
+      <c r="AE235" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="X235" s="54">
+      <c r="AF235" s="54">
         <v>45627</v>
       </c>
     </row>
-    <row r="236" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:32" x14ac:dyDescent="0.3">
       <c r="H236" s="18" t="s">
         <v>112</v>
       </c>
@@ -9270,23 +9300,38 @@
       <c r="R236" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="T236" s="18">
+      <c r="U236" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V236" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W236" s="18">
         <v>1</v>
       </c>
-      <c r="U236" s="18" t="s">
+      <c r="X236" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="V236" s="18" t="s">
+      <c r="Y236" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="W236" s="18" t="s">
+      <c r="AB236" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC236" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD236" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE236" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="X236" s="54">
+      <c r="AF236" s="54">
         <v>45047</v>
       </c>
     </row>
-    <row r="237" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:32" x14ac:dyDescent="0.3">
       <c r="H237" s="18" t="s">
         <v>62</v>
       </c>
@@ -9317,23 +9362,38 @@
       <c r="R237" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="T237" s="18">
+      <c r="U237" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V237" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W237" s="18">
         <v>2</v>
       </c>
-      <c r="U237" s="18" t="s">
+      <c r="X237" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="V237" s="18" t="s">
+      <c r="Y237" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="W237" s="18" t="s">
+      <c r="AB237" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC237" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD237" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE237" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="X237" s="54">
+      <c r="AF237" s="54">
         <v>45627</v>
       </c>
     </row>
-    <row r="238" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:32" x14ac:dyDescent="0.3">
       <c r="H238" s="18" t="s">
         <v>63</v>
       </c>
@@ -9364,23 +9424,38 @@
       <c r="R238" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="T238" s="18">
+      <c r="U238" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="V238" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W238" s="18">
+        <v>1</v>
+      </c>
+      <c r="X238" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y238" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB238" s="18">
         <v>2</v>
       </c>
-      <c r="U238" s="18" t="s">
+      <c r="AC238" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="V238" s="18" t="s">
+      <c r="AD238" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="W238" s="18" t="s">
+      <c r="AE238" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="X238" s="54">
+      <c r="AF238" s="54">
         <v>45047</v>
       </c>
     </row>
-    <row r="239" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:32" x14ac:dyDescent="0.3">
       <c r="H239" s="18" t="s">
         <v>64</v>
       </c>
@@ -9411,8 +9486,23 @@
       <c r="R239" s="18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="240" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="U239" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V239" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W239" s="18">
+        <v>1</v>
+      </c>
+      <c r="X239" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y239" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="240" spans="2:32" x14ac:dyDescent="0.3">
       <c r="H240" s="18" t="s">
         <v>149</v>
       </c>
@@ -9441,6 +9531,21 @@
         <v>156</v>
       </c>
       <c r="R240" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="U240" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="V240" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W240" s="18">
+        <v>2</v>
+      </c>
+      <c r="X240" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y240" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -9460,6 +9565,21 @@
       <c r="L241" s="18" t="s">
         <v>157</v>
       </c>
+      <c r="U241" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="V241" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W241" s="18">
+        <v>1</v>
+      </c>
+      <c r="X241" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y241" s="18" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H242" s="18" t="s">
@@ -9477,6 +9597,21 @@
       <c r="L242" s="18" t="s">
         <v>157</v>
       </c>
+      <c r="U242" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V242" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W242" s="18">
+        <v>2</v>
+      </c>
+      <c r="X242" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y242" s="18" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H243" s="18" t="s">
@@ -9494,6 +9629,21 @@
       <c r="L243" s="18" t="s">
         <v>157</v>
       </c>
+      <c r="U243" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V243" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W243" s="18">
+        <v>1</v>
+      </c>
+      <c r="X243" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y243" s="18" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H244" s="18" t="s">
@@ -9510,6 +9660,55 @@
       </c>
       <c r="L244" s="18" t="s">
         <v>157</v>
+      </c>
+      <c r="U244" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="V244" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W244" s="18">
+        <v>2</v>
+      </c>
+      <c r="X244" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y244" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U245" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V245" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W245" s="18">
+        <v>2</v>
+      </c>
+      <c r="X245" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y245" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U246" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="V246" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W246" s="18">
+        <v>1</v>
+      </c>
+      <c r="X246" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y246" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.3">
@@ -9531,22 +9730,22 @@
       <c r="Q251" s="56"/>
       <c r="R251" s="56"/>
       <c r="S251" s="56"/>
-      <c r="T251" s="79" t="s">
+      <c r="T251" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="U251" s="79"/>
-      <c r="V251" s="79" t="s">
+      <c r="U251" s="82"/>
+      <c r="V251" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="W251" s="79"/>
-      <c r="AA251" s="78" t="s">
+      <c r="W251" s="82"/>
+      <c r="AA251" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="AB251" s="78"/>
-      <c r="AC251" s="78" t="s">
+      <c r="AB251" s="81"/>
+      <c r="AC251" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="AD251" s="78"/>
+      <c r="AD251" s="81"/>
     </row>
     <row r="252" spans="1:30" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B252" s="55"/>
@@ -9571,28 +9770,28 @@
       <c r="S252" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="T252" s="77" t="s">
+      <c r="T252" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="U252" s="77"/>
-      <c r="V252" s="77" t="s">
+      <c r="U252" s="74"/>
+      <c r="V252" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="W252" s="77"/>
+      <c r="W252" s="74"/>
       <c r="Y252" s="58" t="s">
         <v>187</v>
       </c>
       <c r="Z252" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="AA252" s="86" t="s">
+      <c r="AA252" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="AB252" s="86"/>
-      <c r="AC252" s="86" t="s">
+      <c r="AB252" s="73"/>
+      <c r="AC252" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="AD252" s="86"/>
+      <c r="AD252" s="73"/>
     </row>
     <row r="253" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B253" s="2" t="s">
@@ -9619,28 +9818,28 @@
       <c r="S253" s="57">
         <v>0</v>
       </c>
-      <c r="T253" s="77">
+      <c r="T253" s="74">
         <v>0</v>
       </c>
-      <c r="U253" s="77"/>
-      <c r="V253" s="77">
+      <c r="U253" s="74"/>
+      <c r="V253" s="74">
         <v>1</v>
       </c>
-      <c r="W253" s="77"/>
+      <c r="W253" s="74"/>
       <c r="Y253" s="58">
         <v>0</v>
       </c>
       <c r="Z253" s="58">
         <v>0</v>
       </c>
-      <c r="AA253" s="86">
+      <c r="AA253" s="73">
         <v>0</v>
       </c>
-      <c r="AB253" s="86"/>
-      <c r="AC253" s="86">
+      <c r="AB253" s="73"/>
+      <c r="AC253" s="73">
         <v>1</v>
       </c>
-      <c r="AD253" s="86"/>
+      <c r="AD253" s="73"/>
     </row>
     <row r="254" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M254" s="57">
@@ -9664,28 +9863,28 @@
       <c r="S254" s="57">
         <v>0</v>
       </c>
-      <c r="T254" s="77">
+      <c r="T254" s="74">
         <v>0</v>
       </c>
-      <c r="U254" s="77"/>
-      <c r="V254" s="77">
+      <c r="U254" s="74"/>
+      <c r="V254" s="74">
         <v>1</v>
       </c>
-      <c r="W254" s="77"/>
+      <c r="W254" s="74"/>
       <c r="Y254" s="58">
         <v>0</v>
       </c>
       <c r="Z254" s="58">
         <v>1</v>
       </c>
-      <c r="AA254" s="86">
+      <c r="AA254" s="73">
         <v>0</v>
       </c>
-      <c r="AB254" s="86"/>
-      <c r="AC254" s="86">
+      <c r="AB254" s="73"/>
+      <c r="AC254" s="73">
         <v>1</v>
       </c>
-      <c r="AD254" s="86"/>
+      <c r="AD254" s="73"/>
     </row>
     <row r="255" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E255" t="s">
@@ -9715,28 +9914,28 @@
       <c r="S255" s="57">
         <v>0</v>
       </c>
-      <c r="T255" s="77">
+      <c r="T255" s="74">
         <v>1</v>
       </c>
-      <c r="U255" s="77"/>
-      <c r="V255" s="77">
+      <c r="U255" s="74"/>
+      <c r="V255" s="74">
         <v>1</v>
       </c>
-      <c r="W255" s="77"/>
+      <c r="W255" s="74"/>
       <c r="Y255" s="58">
         <v>1</v>
       </c>
       <c r="Z255" s="58">
         <v>0</v>
       </c>
-      <c r="AA255" s="86">
+      <c r="AA255" s="73">
         <v>1</v>
       </c>
-      <c r="AB255" s="86"/>
-      <c r="AC255" s="86">
+      <c r="AB255" s="73"/>
+      <c r="AC255" s="73">
         <v>1</v>
       </c>
-      <c r="AD255" s="86"/>
+      <c r="AD255" s="73"/>
     </row>
     <row r="256" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E256" t="s">
@@ -9766,28 +9965,28 @@
       <c r="S256" s="57">
         <v>1</v>
       </c>
-      <c r="T256" s="77">
+      <c r="T256" s="74">
         <v>1</v>
       </c>
-      <c r="U256" s="77"/>
-      <c r="V256" s="77">
+      <c r="U256" s="74"/>
+      <c r="V256" s="74">
         <v>0</v>
       </c>
-      <c r="W256" s="77"/>
+      <c r="W256" s="74"/>
       <c r="Y256" s="58">
         <v>1</v>
       </c>
       <c r="Z256" s="58">
         <v>1</v>
       </c>
-      <c r="AA256" s="86">
+      <c r="AA256" s="73">
         <v>1</v>
       </c>
-      <c r="AB256" s="86"/>
-      <c r="AC256" s="86">
+      <c r="AB256" s="73"/>
+      <c r="AC256" s="73">
         <v>0</v>
       </c>
-      <c r="AD256" s="86"/>
+      <c r="AD256" s="73"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
@@ -9919,7 +10118,7 @@
     </row>
     <row r="278" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B278" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C278" s="14"/>
       <c r="D278" s="14"/>
@@ -9930,7 +10129,7 @@
     </row>
     <row r="279" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B279" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C279" s="14"/>
       <c r="D279" s="14"/>
@@ -9941,7 +10140,7 @@
     </row>
     <row r="280" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B280" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C280" s="14"/>
       <c r="D280" s="14"/>
@@ -9952,7 +10151,7 @@
     </row>
     <row r="281" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B281" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C281" s="14"/>
       <c r="D281" s="14"/>
@@ -9971,17 +10170,17 @@
     </row>
     <row r="285" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B285" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B286" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B287" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="289" spans="1:24" x14ac:dyDescent="0.3">
@@ -10026,10 +10225,10 @@
       <c r="E291" s="26"/>
       <c r="F291" s="30"/>
       <c r="G291" s="26"/>
-      <c r="H291" s="80" t="s">
+      <c r="H291" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="I291" s="81"/>
+      <c r="I291" s="62"/>
       <c r="J291" s="26"/>
       <c r="K291" s="26"/>
       <c r="L291" s="26"/>
@@ -10054,8 +10253,8 @@
       <c r="E292" s="26"/>
       <c r="F292" s="30"/>
       <c r="G292" s="26"/>
-      <c r="H292" s="82"/>
-      <c r="I292" s="83"/>
+      <c r="H292" s="63"/>
+      <c r="I292" s="64"/>
       <c r="J292" s="26"/>
       <c r="K292" s="26"/>
       <c r="L292" s="26"/>
@@ -10087,10 +10286,10 @@
       <c r="L293" s="26"/>
       <c r="M293" s="26"/>
       <c r="N293" s="26"/>
-      <c r="O293" s="80" t="s">
+      <c r="O293" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="P293" s="81"/>
+      <c r="P293" s="62"/>
       <c r="Q293" s="26"/>
       <c r="R293" s="26"/>
       <c r="S293" s="26"/>
@@ -10115,8 +10314,8 @@
       <c r="L294" s="26"/>
       <c r="M294" s="26"/>
       <c r="N294" s="26"/>
-      <c r="O294" s="82"/>
-      <c r="P294" s="83"/>
+      <c r="O294" s="63"/>
+      <c r="P294" s="64"/>
       <c r="Q294" s="26"/>
       <c r="R294" s="26"/>
       <c r="S294" s="26"/>
@@ -10128,64 +10327,64 @@
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A295" s="26"/>
-      <c r="B295" s="80" t="s">
+      <c r="B295" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="C295" s="84"/>
-      <c r="D295" s="84"/>
-      <c r="E295" s="81"/>
+      <c r="C295" s="65"/>
+      <c r="D295" s="65"/>
+      <c r="E295" s="62"/>
       <c r="F295" s="30"/>
       <c r="G295" s="26"/>
-      <c r="H295" s="80" t="s">
+      <c r="H295" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="I295" s="81"/>
+      <c r="I295" s="62"/>
       <c r="J295" s="26"/>
       <c r="K295" s="26"/>
-      <c r="L295" s="80" t="s">
+      <c r="L295" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="M295" s="81"/>
+      <c r="M295" s="62"/>
       <c r="N295" s="26"/>
       <c r="O295" s="26"/>
       <c r="P295" s="26"/>
       <c r="Q295" s="26"/>
       <c r="R295" s="26"/>
-      <c r="S295" s="80" t="s">
+      <c r="S295" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="T295" s="81"/>
+      <c r="T295" s="62"/>
       <c r="U295" s="26"/>
-      <c r="V295" s="80" t="s">
+      <c r="V295" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="W295" s="81"/>
+      <c r="W295" s="62"/>
       <c r="X295" s="26"/>
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A296" s="26"/>
-      <c r="B296" s="82"/>
-      <c r="C296" s="85"/>
-      <c r="D296" s="85"/>
-      <c r="E296" s="83"/>
+      <c r="B296" s="63"/>
+      <c r="C296" s="66"/>
+      <c r="D296" s="66"/>
+      <c r="E296" s="64"/>
       <c r="F296" s="30"/>
       <c r="G296" s="26"/>
-      <c r="H296" s="82"/>
-      <c r="I296" s="83"/>
+      <c r="H296" s="63"/>
+      <c r="I296" s="64"/>
       <c r="J296" s="26"/>
       <c r="K296" s="26"/>
-      <c r="L296" s="82"/>
-      <c r="M296" s="83"/>
+      <c r="L296" s="63"/>
+      <c r="M296" s="64"/>
       <c r="N296" s="26"/>
       <c r="O296" s="26"/>
       <c r="P296" s="26"/>
       <c r="Q296" s="26"/>
       <c r="R296" s="26"/>
-      <c r="S296" s="82"/>
-      <c r="T296" s="83"/>
+      <c r="S296" s="63"/>
+      <c r="T296" s="64"/>
       <c r="U296" s="26"/>
-      <c r="V296" s="82"/>
-      <c r="W296" s="83"/>
+      <c r="V296" s="63"/>
+      <c r="W296" s="64"/>
       <c r="X296" s="26"/>
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.3">
@@ -10203,10 +10402,10 @@
       <c r="L297" s="26"/>
       <c r="M297" s="26"/>
       <c r="N297" s="26"/>
-      <c r="O297" s="80" t="s">
+      <c r="O297" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="P297" s="81"/>
+      <c r="P297" s="62"/>
       <c r="Q297" s="26"/>
       <c r="R297" s="26"/>
       <c r="S297" s="26"/>
@@ -10231,8 +10430,8 @@
       <c r="L298" s="26"/>
       <c r="M298" s="26"/>
       <c r="N298" s="26"/>
-      <c r="O298" s="82"/>
-      <c r="P298" s="83"/>
+      <c r="O298" s="63"/>
+      <c r="P298" s="64"/>
       <c r="Q298" s="26"/>
       <c r="R298" s="26"/>
       <c r="S298" s="26"/>
@@ -10250,10 +10449,10 @@
       <c r="E299" s="26"/>
       <c r="F299" s="30"/>
       <c r="G299" s="26"/>
-      <c r="H299" s="80" t="s">
+      <c r="H299" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="I299" s="81"/>
+      <c r="I299" s="62"/>
       <c r="J299" s="26"/>
       <c r="K299" s="26"/>
       <c r="L299" s="26"/>
@@ -10278,8 +10477,8 @@
       <c r="E300" s="26"/>
       <c r="F300" s="30"/>
       <c r="G300" s="26"/>
-      <c r="H300" s="82"/>
-      <c r="I300" s="83"/>
+      <c r="H300" s="63"/>
+      <c r="I300" s="64"/>
       <c r="J300" s="26"/>
       <c r="K300" s="26"/>
       <c r="L300" s="26"/>
@@ -10332,21 +10531,21 @@
     </row>
     <row r="305" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="B305" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C305" s="14"/>
       <c r="D305" s="14"/>
     </row>
     <row r="306" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="B306" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C306" s="14"/>
       <c r="D306" s="14"/>
     </row>
     <row r="307" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="B307" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C307" s="14"/>
       <c r="D307" s="14"/>
@@ -10637,11 +10836,35 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="O297:P298"/>
-    <mergeCell ref="O293:P294"/>
-    <mergeCell ref="L295:M296"/>
-    <mergeCell ref="V295:W296"/>
-    <mergeCell ref="S295:T296"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="P122:P123"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="E119:I120"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="C112:G113"/>
+    <mergeCell ref="I112:J113"/>
+    <mergeCell ref="M112:O113"/>
+    <mergeCell ref="M117:O118"/>
+    <mergeCell ref="AA117:AB118"/>
+    <mergeCell ref="T256:U256"/>
+    <mergeCell ref="T255:U255"/>
+    <mergeCell ref="Z125:Z126"/>
+    <mergeCell ref="AC126:AC127"/>
+    <mergeCell ref="V254:W254"/>
+    <mergeCell ref="V252:W252"/>
+    <mergeCell ref="V253:W253"/>
+    <mergeCell ref="T252:U252"/>
+    <mergeCell ref="T253:U253"/>
+    <mergeCell ref="T254:U254"/>
+    <mergeCell ref="AA251:AB251"/>
+    <mergeCell ref="AC251:AD251"/>
+    <mergeCell ref="V256:W256"/>
+    <mergeCell ref="V251:W251"/>
+    <mergeCell ref="T251:U251"/>
     <mergeCell ref="H299:I300"/>
     <mergeCell ref="H295:I296"/>
     <mergeCell ref="B295:E296"/>
@@ -10658,35 +10881,11 @@
     <mergeCell ref="AA256:AB256"/>
     <mergeCell ref="AC256:AD256"/>
     <mergeCell ref="V255:W255"/>
-    <mergeCell ref="AA117:AB118"/>
-    <mergeCell ref="T256:U256"/>
-    <mergeCell ref="T255:U255"/>
-    <mergeCell ref="Z125:Z126"/>
-    <mergeCell ref="AC126:AC127"/>
-    <mergeCell ref="V254:W254"/>
-    <mergeCell ref="V252:W252"/>
-    <mergeCell ref="V253:W253"/>
-    <mergeCell ref="T252:U252"/>
-    <mergeCell ref="T253:U253"/>
-    <mergeCell ref="T254:U254"/>
-    <mergeCell ref="AA251:AB251"/>
-    <mergeCell ref="AC251:AD251"/>
-    <mergeCell ref="V256:W256"/>
-    <mergeCell ref="V251:W251"/>
-    <mergeCell ref="T251:U251"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="P122:P123"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="E119:I120"/>
-    <mergeCell ref="A24:X24"/>
-    <mergeCell ref="C112:G113"/>
-    <mergeCell ref="I112:J113"/>
-    <mergeCell ref="M112:O113"/>
-    <mergeCell ref="M117:O118"/>
+    <mergeCell ref="O297:P298"/>
+    <mergeCell ref="O293:P294"/>
+    <mergeCell ref="L295:M296"/>
+    <mergeCell ref="V295:W296"/>
+    <mergeCell ref="S295:T296"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/Problems1_veil.xlsx
+++ b/Problems1_veil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\СУБД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\СУБД\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4788F59-9875-4558-B5B5-086E96AAFAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57D2A28-9A59-4399-92D0-C807B7946C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
+    <workbookView xWindow="768" yWindow="468" windowWidth="15948" windowHeight="12492" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -1291,23 +1291,35 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,28 +1339,7 @@
     <xf numFmtId="43" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1357,17 +1348,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5939,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <dimension ref="A2:AJ323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O310" sqref="O310"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6268,48 +6268,48 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H23" s="83" t="s">
+      <c r="H23" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="N23" s="83" t="s">
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="N23" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="S23" s="83" t="s">
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="S23" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K25" s="16"/>
@@ -7050,19 +7050,13 @@
       </c>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="H104" s="18">
-        <v>12</v>
-      </c>
+      <c r="H104" s="18"/>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="H105" s="18">
-        <v>56</v>
-      </c>
+      <c r="H105" s="18"/>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="H106" s="18">
-        <v>5</v>
-      </c>
+      <c r="H106" s="18"/>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A108">
@@ -7115,25 +7109,25 @@
     </row>
     <row r="112" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="25"/>
-      <c r="C112" s="75" t="s">
+      <c r="C112" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="D112" s="84"/>
-      <c r="E112" s="84"/>
-      <c r="F112" s="84"/>
-      <c r="G112" s="76"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="66"/>
       <c r="H112" s="26"/>
-      <c r="I112" s="75" t="s">
+      <c r="I112" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="J112" s="76"/>
+      <c r="J112" s="66"/>
       <c r="K112" s="26"/>
       <c r="L112" s="26"/>
-      <c r="M112" s="75" t="s">
+      <c r="M112" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="N112" s="84"/>
-      <c r="O112" s="76"/>
+      <c r="N112" s="65"/>
+      <c r="O112" s="66"/>
       <c r="P112" s="27"/>
       <c r="Q112" s="28"/>
       <c r="T112" s="39"/>
@@ -7156,19 +7150,19 @@
     </row>
     <row r="113" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="25"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="78"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="69"/>
       <c r="H113" s="26"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="78"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="69"/>
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
-      <c r="M113" s="77"/>
-      <c r="N113" s="85"/>
-      <c r="O113" s="78"/>
+      <c r="M113" s="67"/>
+      <c r="N113" s="68"/>
+      <c r="O113" s="69"/>
       <c r="P113" s="27"/>
       <c r="Q113" s="29"/>
       <c r="T113" s="39"/>
@@ -7306,11 +7300,11 @@
       <c r="J117" s="26"/>
       <c r="K117" s="26"/>
       <c r="L117" s="26"/>
-      <c r="M117" s="67" t="s">
+      <c r="M117" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="N117" s="68"/>
-      <c r="O117" s="69"/>
+      <c r="N117" s="72"/>
+      <c r="O117" s="73"/>
       <c r="P117" s="26"/>
       <c r="Q117" s="29"/>
       <c r="T117" s="39"/>
@@ -7320,10 +7314,10 @@
       <c r="X117" s="26"/>
       <c r="Y117" s="26"/>
       <c r="Z117" s="26"/>
-      <c r="AA117" s="75" t="s">
+      <c r="AA117" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="AB117" s="76"/>
+      <c r="AB117" s="66"/>
       <c r="AC117" s="26"/>
       <c r="AD117" s="26"/>
       <c r="AE117" s="26"/>
@@ -7345,9 +7339,9 @@
       <c r="J118" s="26"/>
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
-      <c r="M118" s="70"/>
-      <c r="N118" s="71"/>
-      <c r="O118" s="72"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="75"/>
+      <c r="O118" s="76"/>
       <c r="P118" s="27"/>
       <c r="Q118" s="29"/>
       <c r="T118" s="39"/>
@@ -7357,8 +7351,8 @@
       <c r="X118" s="26"/>
       <c r="Y118" s="26"/>
       <c r="Z118" s="26"/>
-      <c r="AA118" s="77"/>
-      <c r="AB118" s="78"/>
+      <c r="AA118" s="67"/>
+      <c r="AB118" s="69"/>
       <c r="AC118" s="26"/>
       <c r="AD118" s="26"/>
       <c r="AE118" s="26"/>
@@ -7372,13 +7366,13 @@
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="26"/>
-      <c r="E119" s="75" t="s">
+      <c r="E119" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="F119" s="84"/>
-      <c r="G119" s="84"/>
-      <c r="H119" s="84"/>
-      <c r="I119" s="76"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="66"/>
       <c r="J119" s="26"/>
       <c r="K119" s="26"/>
       <c r="L119" s="26"/>
@@ -7409,11 +7403,11 @@
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
-      <c r="H120" s="85"/>
-      <c r="I120" s="78"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="68"/>
+      <c r="I120" s="69"/>
       <c r="J120" s="26"/>
       <c r="K120" s="26"/>
       <c r="L120" s="26"/>
@@ -7459,22 +7453,22 @@
       <c r="Q121" s="29"/>
       <c r="T121" s="39"/>
       <c r="U121" s="26"/>
-      <c r="V121" s="75" t="s">
+      <c r="V121" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="W121" s="84"/>
-      <c r="X121" s="76"/>
+      <c r="W121" s="65"/>
+      <c r="X121" s="66"/>
       <c r="Y121" s="26"/>
       <c r="Z121" s="26"/>
       <c r="AA121" s="26"/>
       <c r="AB121" s="26"/>
       <c r="AC121" s="26"/>
       <c r="AD121" s="26"/>
-      <c r="AE121" s="67" t="s">
+      <c r="AE121" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="AF121" s="68"/>
-      <c r="AG121" s="69"/>
+      <c r="AF121" s="72"/>
+      <c r="AG121" s="73"/>
       <c r="AH121" s="26"/>
       <c r="AI121" s="26"/>
       <c r="AJ121" s="29"/>
@@ -7490,32 +7484,32 @@
       <c r="I122" s="26"/>
       <c r="J122" s="26"/>
       <c r="K122" s="26"/>
-      <c r="L122" s="79" t="s">
+      <c r="L122" s="62" t="s">
         <v>170</v>
       </c>
       <c r="M122" s="26"/>
-      <c r="N122" s="79" t="s">
+      <c r="N122" s="62" t="s">
         <v>173</v>
       </c>
       <c r="O122" s="26"/>
-      <c r="P122" s="79" t="s">
+      <c r="P122" s="62" t="s">
         <v>174</v>
       </c>
       <c r="Q122" s="29"/>
       <c r="T122" s="39"/>
       <c r="U122" s="26"/>
-      <c r="V122" s="77"/>
-      <c r="W122" s="85"/>
-      <c r="X122" s="78"/>
+      <c r="V122" s="67"/>
+      <c r="W122" s="68"/>
+      <c r="X122" s="69"/>
       <c r="Y122" s="26"/>
       <c r="Z122" s="26"/>
       <c r="AA122" s="26"/>
       <c r="AB122" s="26"/>
       <c r="AC122" s="26"/>
       <c r="AD122" s="26"/>
-      <c r="AE122" s="70"/>
-      <c r="AF122" s="71"/>
-      <c r="AG122" s="72"/>
+      <c r="AE122" s="74"/>
+      <c r="AF122" s="75"/>
+      <c r="AG122" s="76"/>
       <c r="AH122" s="26"/>
       <c r="AI122" s="26"/>
       <c r="AJ122" s="29"/>
@@ -7531,11 +7525,11 @@
       <c r="I123" s="26"/>
       <c r="J123" s="26"/>
       <c r="K123" s="26"/>
-      <c r="L123" s="80"/>
+      <c r="L123" s="63"/>
       <c r="M123" s="26"/>
-      <c r="N123" s="80"/>
+      <c r="N123" s="63"/>
       <c r="O123" s="26"/>
-      <c r="P123" s="80"/>
+      <c r="P123" s="63"/>
       <c r="Q123" s="29"/>
       <c r="T123" s="39"/>
       <c r="U123" s="26"/>
@@ -7615,7 +7609,7 @@
       <c r="W125" s="26"/>
       <c r="X125" s="26"/>
       <c r="Y125" s="26"/>
-      <c r="Z125" s="79" t="s">
+      <c r="Z125" s="62" t="s">
         <v>173</v>
       </c>
       <c r="AA125" s="26"/>
@@ -7636,10 +7630,10 @@
       <c r="W126" s="26"/>
       <c r="X126" s="26"/>
       <c r="Y126" s="26"/>
-      <c r="Z126" s="80"/>
+      <c r="Z126" s="63"/>
       <c r="AA126" s="26"/>
       <c r="AB126" s="26"/>
-      <c r="AC126" s="79" t="s">
+      <c r="AC126" s="62" t="s">
         <v>174</v>
       </c>
       <c r="AD126" s="26"/>
@@ -7666,7 +7660,7 @@
       <c r="Z127" s="26"/>
       <c r="AA127" s="26"/>
       <c r="AB127" s="26"/>
-      <c r="AC127" s="80"/>
+      <c r="AC127" s="63"/>
       <c r="AD127" s="26"/>
       <c r="AE127" s="26"/>
       <c r="AF127" s="26"/>
@@ -9730,22 +9724,22 @@
       <c r="Q251" s="56"/>
       <c r="R251" s="56"/>
       <c r="S251" s="56"/>
-      <c r="T251" s="82" t="s">
+      <c r="T251" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="U251" s="82"/>
-      <c r="V251" s="82" t="s">
+      <c r="U251" s="79"/>
+      <c r="V251" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="W251" s="82"/>
-      <c r="AA251" s="81" t="s">
+      <c r="W251" s="79"/>
+      <c r="AA251" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="AB251" s="81"/>
-      <c r="AC251" s="81" t="s">
+      <c r="AB251" s="78"/>
+      <c r="AC251" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="AD251" s="81"/>
+      <c r="AD251" s="78"/>
     </row>
     <row r="252" spans="1:30" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B252" s="55"/>
@@ -9770,28 +9764,28 @@
       <c r="S252" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="T252" s="74" t="s">
+      <c r="T252" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="U252" s="74"/>
-      <c r="V252" s="74" t="s">
+      <c r="U252" s="77"/>
+      <c r="V252" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="W252" s="74"/>
+      <c r="W252" s="77"/>
       <c r="Y252" s="58" t="s">
         <v>187</v>
       </c>
       <c r="Z252" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="AA252" s="73" t="s">
+      <c r="AA252" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="AB252" s="73"/>
-      <c r="AC252" s="73" t="s">
+      <c r="AB252" s="86"/>
+      <c r="AC252" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="AD252" s="73"/>
+      <c r="AD252" s="86"/>
     </row>
     <row r="253" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B253" s="2" t="s">
@@ -9818,28 +9812,28 @@
       <c r="S253" s="57">
         <v>0</v>
       </c>
-      <c r="T253" s="74">
+      <c r="T253" s="77">
         <v>0</v>
       </c>
-      <c r="U253" s="74"/>
-      <c r="V253" s="74">
+      <c r="U253" s="77"/>
+      <c r="V253" s="77">
         <v>1</v>
       </c>
-      <c r="W253" s="74"/>
+      <c r="W253" s="77"/>
       <c r="Y253" s="58">
         <v>0</v>
       </c>
       <c r="Z253" s="58">
         <v>0</v>
       </c>
-      <c r="AA253" s="73">
+      <c r="AA253" s="86">
         <v>0</v>
       </c>
-      <c r="AB253" s="73"/>
-      <c r="AC253" s="73">
+      <c r="AB253" s="86"/>
+      <c r="AC253" s="86">
         <v>1</v>
       </c>
-      <c r="AD253" s="73"/>
+      <c r="AD253" s="86"/>
     </row>
     <row r="254" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M254" s="57">
@@ -9863,28 +9857,28 @@
       <c r="S254" s="57">
         <v>0</v>
       </c>
-      <c r="T254" s="74">
+      <c r="T254" s="77">
         <v>0</v>
       </c>
-      <c r="U254" s="74"/>
-      <c r="V254" s="74">
+      <c r="U254" s="77"/>
+      <c r="V254" s="77">
         <v>1</v>
       </c>
-      <c r="W254" s="74"/>
+      <c r="W254" s="77"/>
       <c r="Y254" s="58">
         <v>0</v>
       </c>
       <c r="Z254" s="58">
         <v>1</v>
       </c>
-      <c r="AA254" s="73">
+      <c r="AA254" s="86">
         <v>0</v>
       </c>
-      <c r="AB254" s="73"/>
-      <c r="AC254" s="73">
+      <c r="AB254" s="86"/>
+      <c r="AC254" s="86">
         <v>1</v>
       </c>
-      <c r="AD254" s="73"/>
+      <c r="AD254" s="86"/>
     </row>
     <row r="255" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E255" t="s">
@@ -9914,28 +9908,28 @@
       <c r="S255" s="57">
         <v>0</v>
       </c>
-      <c r="T255" s="74">
+      <c r="T255" s="77">
         <v>1</v>
       </c>
-      <c r="U255" s="74"/>
-      <c r="V255" s="74">
+      <c r="U255" s="77"/>
+      <c r="V255" s="77">
         <v>1</v>
       </c>
-      <c r="W255" s="74"/>
+      <c r="W255" s="77"/>
       <c r="Y255" s="58">
         <v>1</v>
       </c>
       <c r="Z255" s="58">
         <v>0</v>
       </c>
-      <c r="AA255" s="73">
+      <c r="AA255" s="86">
         <v>1</v>
       </c>
-      <c r="AB255" s="73"/>
-      <c r="AC255" s="73">
+      <c r="AB255" s="86"/>
+      <c r="AC255" s="86">
         <v>1</v>
       </c>
-      <c r="AD255" s="73"/>
+      <c r="AD255" s="86"/>
     </row>
     <row r="256" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E256" t="s">
@@ -9965,28 +9959,28 @@
       <c r="S256" s="57">
         <v>1</v>
       </c>
-      <c r="T256" s="74">
+      <c r="T256" s="77">
         <v>1</v>
       </c>
-      <c r="U256" s="74"/>
-      <c r="V256" s="74">
+      <c r="U256" s="77"/>
+      <c r="V256" s="77">
         <v>0</v>
       </c>
-      <c r="W256" s="74"/>
+      <c r="W256" s="77"/>
       <c r="Y256" s="58">
         <v>1</v>
       </c>
       <c r="Z256" s="58">
         <v>1</v>
       </c>
-      <c r="AA256" s="73">
+      <c r="AA256" s="86">
         <v>1</v>
       </c>
-      <c r="AB256" s="73"/>
-      <c r="AC256" s="73">
+      <c r="AB256" s="86"/>
+      <c r="AC256" s="86">
         <v>0</v>
       </c>
-      <c r="AD256" s="73"/>
+      <c r="AD256" s="86"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
@@ -10225,10 +10219,10 @@
       <c r="E291" s="26"/>
       <c r="F291" s="30"/>
       <c r="G291" s="26"/>
-      <c r="H291" s="61" t="s">
+      <c r="H291" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="I291" s="62"/>
+      <c r="I291" s="81"/>
       <c r="J291" s="26"/>
       <c r="K291" s="26"/>
       <c r="L291" s="26"/>
@@ -10253,8 +10247,8 @@
       <c r="E292" s="26"/>
       <c r="F292" s="30"/>
       <c r="G292" s="26"/>
-      <c r="H292" s="63"/>
-      <c r="I292" s="64"/>
+      <c r="H292" s="82"/>
+      <c r="I292" s="83"/>
       <c r="J292" s="26"/>
       <c r="K292" s="26"/>
       <c r="L292" s="26"/>
@@ -10286,10 +10280,10 @@
       <c r="L293" s="26"/>
       <c r="M293" s="26"/>
       <c r="N293" s="26"/>
-      <c r="O293" s="61" t="s">
+      <c r="O293" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="P293" s="62"/>
+      <c r="P293" s="81"/>
       <c r="Q293" s="26"/>
       <c r="R293" s="26"/>
       <c r="S293" s="26"/>
@@ -10314,8 +10308,8 @@
       <c r="L294" s="26"/>
       <c r="M294" s="26"/>
       <c r="N294" s="26"/>
-      <c r="O294" s="63"/>
-      <c r="P294" s="64"/>
+      <c r="O294" s="82"/>
+      <c r="P294" s="83"/>
       <c r="Q294" s="26"/>
       <c r="R294" s="26"/>
       <c r="S294" s="26"/>
@@ -10327,64 +10321,64 @@
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A295" s="26"/>
-      <c r="B295" s="61" t="s">
+      <c r="B295" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="C295" s="65"/>
-      <c r="D295" s="65"/>
-      <c r="E295" s="62"/>
+      <c r="C295" s="84"/>
+      <c r="D295" s="84"/>
+      <c r="E295" s="81"/>
       <c r="F295" s="30"/>
       <c r="G295" s="26"/>
-      <c r="H295" s="61" t="s">
+      <c r="H295" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="I295" s="62"/>
+      <c r="I295" s="81"/>
       <c r="J295" s="26"/>
       <c r="K295" s="26"/>
-      <c r="L295" s="61" t="s">
+      <c r="L295" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="M295" s="62"/>
+      <c r="M295" s="81"/>
       <c r="N295" s="26"/>
       <c r="O295" s="26"/>
       <c r="P295" s="26"/>
       <c r="Q295" s="26"/>
       <c r="R295" s="26"/>
-      <c r="S295" s="61" t="s">
+      <c r="S295" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="T295" s="62"/>
+      <c r="T295" s="81"/>
       <c r="U295" s="26"/>
-      <c r="V295" s="61" t="s">
+      <c r="V295" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="W295" s="62"/>
+      <c r="W295" s="81"/>
       <c r="X295" s="26"/>
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A296" s="26"/>
-      <c r="B296" s="63"/>
-      <c r="C296" s="66"/>
-      <c r="D296" s="66"/>
-      <c r="E296" s="64"/>
+      <c r="B296" s="82"/>
+      <c r="C296" s="85"/>
+      <c r="D296" s="85"/>
+      <c r="E296" s="83"/>
       <c r="F296" s="30"/>
       <c r="G296" s="26"/>
-      <c r="H296" s="63"/>
-      <c r="I296" s="64"/>
+      <c r="H296" s="82"/>
+      <c r="I296" s="83"/>
       <c r="J296" s="26"/>
       <c r="K296" s="26"/>
-      <c r="L296" s="63"/>
-      <c r="M296" s="64"/>
+      <c r="L296" s="82"/>
+      <c r="M296" s="83"/>
       <c r="N296" s="26"/>
       <c r="O296" s="26"/>
       <c r="P296" s="26"/>
       <c r="Q296" s="26"/>
       <c r="R296" s="26"/>
-      <c r="S296" s="63"/>
-      <c r="T296" s="64"/>
+      <c r="S296" s="82"/>
+      <c r="T296" s="83"/>
       <c r="U296" s="26"/>
-      <c r="V296" s="63"/>
-      <c r="W296" s="64"/>
+      <c r="V296" s="82"/>
+      <c r="W296" s="83"/>
       <c r="X296" s="26"/>
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.3">
@@ -10402,10 +10396,10 @@
       <c r="L297" s="26"/>
       <c r="M297" s="26"/>
       <c r="N297" s="26"/>
-      <c r="O297" s="61" t="s">
+      <c r="O297" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="P297" s="62"/>
+      <c r="P297" s="81"/>
       <c r="Q297" s="26"/>
       <c r="R297" s="26"/>
       <c r="S297" s="26"/>
@@ -10430,8 +10424,8 @@
       <c r="L298" s="26"/>
       <c r="M298" s="26"/>
       <c r="N298" s="26"/>
-      <c r="O298" s="63"/>
-      <c r="P298" s="64"/>
+      <c r="O298" s="82"/>
+      <c r="P298" s="83"/>
       <c r="Q298" s="26"/>
       <c r="R298" s="26"/>
       <c r="S298" s="26"/>
@@ -10449,10 +10443,10 @@
       <c r="E299" s="26"/>
       <c r="F299" s="30"/>
       <c r="G299" s="26"/>
-      <c r="H299" s="61" t="s">
+      <c r="H299" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="I299" s="62"/>
+      <c r="I299" s="81"/>
       <c r="J299" s="26"/>
       <c r="K299" s="26"/>
       <c r="L299" s="26"/>
@@ -10477,8 +10471,8 @@
       <c r="E300" s="26"/>
       <c r="F300" s="30"/>
       <c r="G300" s="26"/>
-      <c r="H300" s="63"/>
-      <c r="I300" s="64"/>
+      <c r="H300" s="82"/>
+      <c r="I300" s="83"/>
       <c r="J300" s="26"/>
       <c r="K300" s="26"/>
       <c r="L300" s="26"/>
@@ -10836,19 +10830,27 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="P122:P123"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="E119:I120"/>
-    <mergeCell ref="A24:X24"/>
-    <mergeCell ref="C112:G113"/>
-    <mergeCell ref="I112:J113"/>
-    <mergeCell ref="M112:O113"/>
-    <mergeCell ref="M117:O118"/>
+    <mergeCell ref="O297:P298"/>
+    <mergeCell ref="O293:P294"/>
+    <mergeCell ref="L295:M296"/>
+    <mergeCell ref="V295:W296"/>
+    <mergeCell ref="S295:T296"/>
+    <mergeCell ref="H299:I300"/>
+    <mergeCell ref="H295:I296"/>
+    <mergeCell ref="B295:E296"/>
+    <mergeCell ref="H291:I292"/>
+    <mergeCell ref="AE121:AG122"/>
+    <mergeCell ref="AA252:AB252"/>
+    <mergeCell ref="AC252:AD252"/>
+    <mergeCell ref="AA253:AB253"/>
+    <mergeCell ref="AC253:AD253"/>
+    <mergeCell ref="AA254:AB254"/>
+    <mergeCell ref="AC254:AD254"/>
+    <mergeCell ref="AA255:AB255"/>
+    <mergeCell ref="AC255:AD255"/>
+    <mergeCell ref="AA256:AB256"/>
+    <mergeCell ref="AC256:AD256"/>
+    <mergeCell ref="V255:W255"/>
     <mergeCell ref="AA117:AB118"/>
     <mergeCell ref="T256:U256"/>
     <mergeCell ref="T255:U255"/>
@@ -10865,27 +10867,19 @@
     <mergeCell ref="V256:W256"/>
     <mergeCell ref="V251:W251"/>
     <mergeCell ref="T251:U251"/>
-    <mergeCell ref="H299:I300"/>
-    <mergeCell ref="H295:I296"/>
-    <mergeCell ref="B295:E296"/>
-    <mergeCell ref="H291:I292"/>
-    <mergeCell ref="AE121:AG122"/>
-    <mergeCell ref="AA252:AB252"/>
-    <mergeCell ref="AC252:AD252"/>
-    <mergeCell ref="AA253:AB253"/>
-    <mergeCell ref="AC253:AD253"/>
-    <mergeCell ref="AA254:AB254"/>
-    <mergeCell ref="AC254:AD254"/>
-    <mergeCell ref="AA255:AB255"/>
-    <mergeCell ref="AC255:AD255"/>
-    <mergeCell ref="AA256:AB256"/>
-    <mergeCell ref="AC256:AD256"/>
-    <mergeCell ref="V255:W255"/>
-    <mergeCell ref="O297:P298"/>
-    <mergeCell ref="O293:P294"/>
-    <mergeCell ref="L295:M296"/>
-    <mergeCell ref="V295:W296"/>
-    <mergeCell ref="S295:T296"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="P122:P123"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="E119:I120"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="C112:G113"/>
+    <mergeCell ref="I112:J113"/>
+    <mergeCell ref="M112:O113"/>
+    <mergeCell ref="M117:O118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
